--- a/Table1.pdf.xlsx
+++ b/Table1.pdf.xlsx
@@ -234,8 +234,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border outline="0">
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+      </border>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
@@ -249,11 +252,8 @@
       </border>
     </dxf>
     <dxf>
-      <border outline="0">
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-      </border>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -269,12 +269,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:C13" headerRowDxfId="2" dataDxfId="0" totalsRowDxfId="1" headerRowBorderDxfId="6" tableBorderDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:C13" headerRowDxfId="7" dataDxfId="5" totalsRowDxfId="3" headerRowBorderDxfId="6" tableBorderDxfId="4">
   <autoFilter ref="A1:C13"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Function" totalsRowLabel="Total" dataDxfId="5"/>
-    <tableColumn id="2" name="Unit" dataDxfId="4"/>
-    <tableColumn id="3" name="TODO" totalsRowFunction="count" dataDxfId="3"/>
+    <tableColumn id="1" name="Function" totalsRowLabel="Total" dataDxfId="2"/>
+    <tableColumn id="2" name="Unit" dataDxfId="1"/>
+    <tableColumn id="3" name="TODO" totalsRowFunction="count" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -551,9 +551,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="40.44140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="34.77734375" style="1" customWidth="1"/>
     <col min="2" max="2" width="25.44140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="41.44140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="35.88671875" style="1" customWidth="1"/>
     <col min="4" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>

--- a/Table1.pdf.xlsx
+++ b/Table1.pdf.xlsx
@@ -546,15 +546,14 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="30.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="34.77734375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="25.44140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="35.88671875" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="29.21875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="25.33203125" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="30.6640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -602,7 +601,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
@@ -613,7 +612,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="72" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
@@ -624,7 +623,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>18</v>
       </c>
@@ -646,7 +645,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>24</v>
       </c>
@@ -657,7 +656,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>27</v>
       </c>
@@ -690,7 +689,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" ht="72" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>36</v>
       </c>
